--- a/yaml/vmu_errors_parse.xlsx
+++ b/yaml/vmu_errors_parse.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\yaml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E0B17-3C45-4D8F-BABA-C901318BBCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A9B30-C5FC-44D5-A199-F27E4A60F738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="523">
   <si>
     <t>name</t>
   </si>
@@ -838,39 +840,12 @@
     <t>'EEPROM Init timeout'</t>
   </si>
   <si>
-    <t>'FRONT STEERING Overheat'</t>
-  </si>
-  <si>
-    <t>'FRONT STEERING Stator high current'</t>
-  </si>
-  <si>
-    <t>'FRONT STEERING Supply voltage low'</t>
-  </si>
-  <si>
-    <t>'FRONT STEERING Supply voltage high'</t>
-  </si>
-  <si>
     <t>'FRONT STEERING Offline'</t>
   </si>
   <si>
-    <t>'REAR STEERING Overheat'</t>
-  </si>
-  <si>
-    <t>'REAR STEERING Stator high current'</t>
-  </si>
-  <si>
-    <t>'REAR STEERING Supply voltage low'</t>
-  </si>
-  <si>
-    <t>'REAR STEERING Supply voltage high'</t>
-  </si>
-  <si>
     <t>'REAR STEERING Offline'</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'PARKING BRAKE   Pin hardware error', </t>
-  </si>
-  <si>
     <t>'ABS FL Hardware'</t>
   </si>
   <si>
@@ -919,15 +894,9 @@
     <t>'ABS RR Failure'</t>
   </si>
   <si>
-    <t>'DISCRETE INPUTS Antifreeze sensor'</t>
-  </si>
-  <si>
     <t>'DISCRETE INPUTS Red button'</t>
   </si>
   <si>
-    <t>'DISCRETE INPUTS Brake fluid sensor'</t>
-  </si>
-  <si>
     <t>'IOLIB ERRORS ERROR_NON_FATAL'</t>
   </si>
   <si>
@@ -964,39 +933,6 @@
     <t>'CHARGING BZU_OFFLINE'</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'CHARGING   PSTED pin error', </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'CHARGING   BZU offline', </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'HYDRAULIC BRAKES   Graceful driver', </t>
-  </si>
-  <si>
-    <t>'HYDRAULIC BRAKES NON_ZERO_STARTUP_VELOCITY '</t>
-  </si>
-  <si>
-    <t>'HYDRAULIC BRAKES Accumulator'</t>
-  </si>
-  <si>
-    <t>'HYDRAULIC BRAKES Contour L'</t>
-  </si>
-  <si>
-    <t>'HYDRAULIC BRAKES Contour R'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'HYDRAULIC BRAKES   Contour L', </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'HYDRAULIC BRAKES   Contour R', </t>
-  </si>
-  <si>
-    <t>'HYDRAULIC BRAKES GRACEFUL_DRIVER '</t>
-  </si>
-  <si>
-    <t>'HYDRAULIC BRAKES CALIBRATOR_UNIT_CHECK_ERROR '</t>
-  </si>
-  <si>
     <t>'SUSPENSION Hardware fault'</t>
   </si>
   <si>
@@ -1069,21 +1005,12 @@
     <t>'POWER MANAGEMENT Mass relay pin'</t>
   </si>
   <si>
-    <t>'POWER MANAGEMENT BKU turnoff pin'</t>
-  </si>
-  <si>
     <t>'COOLING_FAN HARDWARE_ERROR'</t>
   </si>
   <si>
     <t>'COOLING_FAN WRONG_SETTINGS'</t>
   </si>
   <si>
-    <t>MAINFSM BKU_LOST_IN_ARMED'</t>
-  </si>
-  <si>
-    <t>DISCRETE_BRAKES HARDWARE_ERROR'</t>
-  </si>
-  <si>
     <t>'T15_CONTROL HARDWARE'</t>
   </si>
   <si>
@@ -1130,6 +1057,558 @@
   </si>
   <si>
     <t>'DISCRETE_OUTPUT DISCRETE_BRAKE_VALVE_2_9_PIN_ERROR'</t>
+  </si>
+  <si>
+    <t>LIGHTS CONTROL   At least one lights pin error</t>
+  </si>
+  <si>
+    <t>EEPROM   CRC</t>
+  </si>
+  <si>
+    <t>EEPROM   Hardware</t>
+  </si>
+  <si>
+    <t>EEPROM   Nullptr</t>
+  </si>
+  <si>
+    <t>EEPROM   Verification</t>
+  </si>
+  <si>
+    <t>EEPROM   Init timeout</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Overheat</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Stator high current</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Supply voltage low</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Supply voltage high</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Offline</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Overheat</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Stator high current</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Supply voltage low</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Supply voltage high</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Offline</t>
+  </si>
+  <si>
+    <t>PARKING BRAKE   Pin hardware error</t>
+  </si>
+  <si>
+    <t>ABS   FL Hardware</t>
+  </si>
+  <si>
+    <t>ABS   FL Wiring</t>
+  </si>
+  <si>
+    <t>ABS   FL Warning</t>
+  </si>
+  <si>
+    <t>ABS   FL Failure</t>
+  </si>
+  <si>
+    <t>ABS   FR Hardware</t>
+  </si>
+  <si>
+    <t>ABS   FR Wiring</t>
+  </si>
+  <si>
+    <t>ABS   FR Warning</t>
+  </si>
+  <si>
+    <t>ABS   FR Failure</t>
+  </si>
+  <si>
+    <t>ABS   RL Hardware</t>
+  </si>
+  <si>
+    <t>ABS   RL Wiring</t>
+  </si>
+  <si>
+    <t>ABS   RL Warning</t>
+  </si>
+  <si>
+    <t>ABS   RL Failure</t>
+  </si>
+  <si>
+    <t>ABS   RR Hardware</t>
+  </si>
+  <si>
+    <t>ABS   RR Wiring</t>
+  </si>
+  <si>
+    <t>ABS   RR Warning</t>
+  </si>
+  <si>
+    <t>ABS   RR Failure</t>
+  </si>
+  <si>
+    <t>DISCRETE INPUTS   Antifreeze sensor</t>
+  </si>
+  <si>
+    <t>DISCRETE INPUTS   Red button</t>
+  </si>
+  <si>
+    <t>DISCRETE INPUTS   Brake fluid sensor</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   ERROR_NON_FATAL</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   WARNING_CFG_FLASH</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   WARNING_FLASH</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   WARNING_RAM</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   ERROR_FATAL</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   ERROR_FPU</t>
+  </si>
+  <si>
+    <t>CHARGING   BMS offline</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU hardware  error</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU overheat</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU input voltage error</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU communication error</t>
+  </si>
+  <si>
+    <t>CHARGING   CP pin error</t>
+  </si>
+  <si>
+    <t>CHARGING   PSTED pin error</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU offline</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Graceful driver</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Non-zero startup velocity</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Accumulator</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   SMC1</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   SMC2</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Contour L</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Contour R</t>
+  </si>
+  <si>
+    <t>SUSPENSION   Hardware fault</t>
+  </si>
+  <si>
+    <t>SUSPENSION   Pressure limit warning</t>
+  </si>
+  <si>
+    <t>SUSPENSION   Height timeout warning</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V24 undervoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V24 overvoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V12 undervoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V12 overvoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   IOLIB_24V</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   IOLIB_12V</t>
+  </si>
+  <si>
+    <t>PSTED   Contactor warning</t>
+  </si>
+  <si>
+    <t>PSTED   Overheat warning</t>
+  </si>
+  <si>
+    <t>PSTED   Sensor warning</t>
+  </si>
+  <si>
+    <t>PSTED   High voltage warning</t>
+  </si>
+  <si>
+    <t>PSTED   Other warning</t>
+  </si>
+  <si>
+    <t>PSTED   Offline</t>
+  </si>
+  <si>
+    <t>PSTED   Hardwsre fault</t>
+  </si>
+  <si>
+    <t>PSTED   Emergency stop</t>
+  </si>
+  <si>
+    <t>PSTED   Overheat</t>
+  </si>
+  <si>
+    <t>PSTED   Phys limits</t>
+  </si>
+  <si>
+    <t>PSTED   Contactor fault</t>
+  </si>
+  <si>
+    <t>PSTED   Software and config</t>
+  </si>
+  <si>
+    <t>PSTED   Precharge fault</t>
+  </si>
+  <si>
+    <t>PSTED   Other errors</t>
+  </si>
+  <si>
+    <t>POWER MANAGEMENT   Mass relay pin</t>
+  </si>
+  <si>
+    <t>POWER MANAGEMENT   BKU turnoff pin</t>
+  </si>
+  <si>
+    <t>LIGHTSCONTROLAtleastonelightspinerror</t>
+  </si>
+  <si>
+    <t>EEPROMCRC</t>
+  </si>
+  <si>
+    <t>EEPROMHardware</t>
+  </si>
+  <si>
+    <t>EEPROMNullptr</t>
+  </si>
+  <si>
+    <t>EEPROMVerification</t>
+  </si>
+  <si>
+    <t>EEPROMInittimeout</t>
+  </si>
+  <si>
+    <t>FRONTSTEERINGOverheat</t>
+  </si>
+  <si>
+    <t>FRONTSTEERINGStatorhighcurrent</t>
+  </si>
+  <si>
+    <t>FRONTSTEERINGSupplyvoltagelow</t>
+  </si>
+  <si>
+    <t>FRONTSTEERINGSupplyvoltagehigh</t>
+  </si>
+  <si>
+    <t>FRONTSTEERINGOffline</t>
+  </si>
+  <si>
+    <t>REARSTEERINGOverheat</t>
+  </si>
+  <si>
+    <t>REARSTEERINGStatorhighcurrent</t>
+  </si>
+  <si>
+    <t>REARSTEERINGSupplyvoltagelow</t>
+  </si>
+  <si>
+    <t>REARSTEERINGSupplyvoltagehigh</t>
+  </si>
+  <si>
+    <t>REARSTEERINGOffline</t>
+  </si>
+  <si>
+    <t>PARKINGBRAKEPinhardwareerror</t>
+  </si>
+  <si>
+    <t>ABSFLHardware</t>
+  </si>
+  <si>
+    <t>ABSFLWiring</t>
+  </si>
+  <si>
+    <t>ABSFLWarning</t>
+  </si>
+  <si>
+    <t>ABSFLFailure</t>
+  </si>
+  <si>
+    <t>ABSFRHardware</t>
+  </si>
+  <si>
+    <t>ABSFRWiring</t>
+  </si>
+  <si>
+    <t>ABSFRWarning</t>
+  </si>
+  <si>
+    <t>ABSFRFailure</t>
+  </si>
+  <si>
+    <t>ABSRLHardware</t>
+  </si>
+  <si>
+    <t>ABSRLWiring</t>
+  </si>
+  <si>
+    <t>ABSRLWarning</t>
+  </si>
+  <si>
+    <t>ABSRLFailure</t>
+  </si>
+  <si>
+    <t>ABSRRHardware</t>
+  </si>
+  <si>
+    <t>ABSRRWiring</t>
+  </si>
+  <si>
+    <t>ABSRRWarning</t>
+  </si>
+  <si>
+    <t>ABSRRFailure</t>
+  </si>
+  <si>
+    <t>DISCRETEINPUTSAntifreezesensor</t>
+  </si>
+  <si>
+    <t>DISCRETEINPUTSRedbutton</t>
+  </si>
+  <si>
+    <t>DISCRETEINPUTSBrakefluidsensor</t>
+  </si>
+  <si>
+    <t>IOLIBERRORSERROR_NON_FATAL</t>
+  </si>
+  <si>
+    <t>IOLIBERRORSWARNING_CFG_FLASH</t>
+  </si>
+  <si>
+    <t>IOLIBERRORSWARNING_FLASH</t>
+  </si>
+  <si>
+    <t>IOLIBERRORSWARNING_RAM</t>
+  </si>
+  <si>
+    <t>IOLIBERRORSERROR_FATAL</t>
+  </si>
+  <si>
+    <t>IOLIBERRORSERROR_FPU</t>
+  </si>
+  <si>
+    <t>HYDRAULICBRAKESAccumulator</t>
+  </si>
+  <si>
+    <t>HYDRAULICBRAKESContourL</t>
+  </si>
+  <si>
+    <t>HYDRAULICBRAKESContourR</t>
+  </si>
+  <si>
+    <t>SUSPENSIONHardwarefault</t>
+  </si>
+  <si>
+    <t>SUSPENSIONPressurelimitwarning</t>
+  </si>
+  <si>
+    <t>SUSPENSIONHeighttimeoutwarning</t>
+  </si>
+  <si>
+    <t>VOLTAGEMONITORINGV24undervoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGEMONITORINGV24overvoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGEMONITORINGV12undervoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGEMONITORINGV12overvoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGEMONITORINGIOLIB_24V</t>
+  </si>
+  <si>
+    <t>VOLTAGEMONITORINGIOLIB_12V</t>
+  </si>
+  <si>
+    <t>PSTEDContactorwarning</t>
+  </si>
+  <si>
+    <t>PSTEDOverheatwarning</t>
+  </si>
+  <si>
+    <t>PSTEDSensorwarning</t>
+  </si>
+  <si>
+    <t>PSTEDHighvoltagewarning</t>
+  </si>
+  <si>
+    <t>PSTEDOtherwarning</t>
+  </si>
+  <si>
+    <t>PSTEDOffline</t>
+  </si>
+  <si>
+    <t>PSTEDEmergencystop</t>
+  </si>
+  <si>
+    <t>PSTEDOverheat</t>
+  </si>
+  <si>
+    <t>PSTEDPhyslimits</t>
+  </si>
+  <si>
+    <t>PSTEDContactorfault</t>
+  </si>
+  <si>
+    <t>PSTEDSoftwareandconfig</t>
+  </si>
+  <si>
+    <t>PSTEDPrechargefault</t>
+  </si>
+  <si>
+    <t>PSTEDOthererrors</t>
+  </si>
+  <si>
+    <t>POWERMANAGEMENTMassrelaypin</t>
+  </si>
+  <si>
+    <t>POWERMANAGEMENTBKUturnoffpin</t>
+  </si>
+  <si>
+    <t>CHARGINGBMS_OFFLINE</t>
+  </si>
+  <si>
+    <t>CHARGINGBZU_HARDWARE_FAILURE</t>
+  </si>
+  <si>
+    <t>CHARGINGBZU_OVERHEAT</t>
+  </si>
+  <si>
+    <t>CHARGINGBZU_INPUT_VOLTAGE_ERROR</t>
+  </si>
+  <si>
+    <t>CHARGINGBZU_COMMUNICATION_ERROR</t>
+  </si>
+  <si>
+    <t>CHARGINGBZU_OFFLINE</t>
+  </si>
+  <si>
+    <t>CHARGINGPSTEDpinerror,</t>
+  </si>
+  <si>
+    <t>CHARGINGBZUoffline,</t>
+  </si>
+  <si>
+    <t>HYDRAULICBRAKESGracefuldriver,</t>
+  </si>
+  <si>
+    <t>HYDRAULICBRAKESNON_ZERO_STARTUP_VELOCITY</t>
+  </si>
+  <si>
+    <t>HYDRAULICBRAKESGRACEFUL_DRIVER</t>
+  </si>
+  <si>
+    <t>HYDRAULICBRAKESCALIBRATOR_UNIT_CHECK_ERROR</t>
+  </si>
+  <si>
+    <t>PSTEDHardwarefault</t>
+  </si>
+  <si>
+    <t>COOLING_FANHARDWARE_ERROR</t>
+  </si>
+  <si>
+    <t>COOLING_FANWRONG_SETTINGS</t>
+  </si>
+  <si>
+    <t>MAINFSMBKU_LOST_IN_ARMED</t>
+  </si>
+  <si>
+    <t>DISCRETE_BRAKESHARDWARE_ERROR</t>
+  </si>
+  <si>
+    <t>T15_CONTROLHARDWARE</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_UP_1_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_UP_2_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_UP_3_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_UP_4_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_DOWN_1_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_DOWN_2_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_DOWN_3_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSUSP_VALVE_DOWN_4_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTCHARGE_STATE_LED_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTPARKING_BRAKE_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTCHARGE_CP_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTSTART_PSTED_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTDISCRETE_BRAKE_PUMP_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTDISCRETE_BRAKE_VALVE_1_8_PIN_ERROR</t>
+  </si>
+  <si>
+    <t>DISCRETE_OUTPUTDISCRETE_BRAKE_VALVE_2_9_PIN_ERROR</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1990,7 @@
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,8 +2009,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1551,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1631,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1651,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1691,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1751,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1811,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3372,19 +3854,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3680049E-26DA-4D5C-95EB-6B2DBEAE8178}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3400,1598 +3883,3604 @@
       <c r="E1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4096</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">"тут какое-то описание по ошибке "&amp;B2</f>
-        <v>тут какое-то описание по ошибке 'LIGHTS CONTROL At least one lights pin error'</v>
+        <v>421</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="b">
+        <f>IFERROR(VLOOKUP(C2,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6144</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'EEPROM CRC'</v>
+        <v>422</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="b">
+        <f>IFERROR(VLOOKUP(C3,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6145</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'EEPROM Hardware'</v>
+        <v>423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="b">
+        <f>IFERROR(VLOOKUP(C4,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>6146</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'EEPROM Nullptr'</v>
+        <v>424</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="b">
+        <f>IFERROR(VLOOKUP(C5,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6148</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'EEPROM Verification'</v>
+        <v>425</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="b">
+        <f>IFERROR(VLOOKUP(C6,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6403</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'EEPROM Init timeout'</v>
+        <v>426</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="b">
+        <f>IFERROR(VLOOKUP(C7,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10243</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'FRONT STEERING Overheat'</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="b">
+        <f>IFERROR(VLOOKUP(C8,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10244</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'FRONT STEERING Stator high current'</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="b">
+        <f>IFERROR(VLOOKUP(C9,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10245</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'FRONT STEERING Supply voltage low'</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="b">
+        <f>IFERROR(VLOOKUP(C10,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10246</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'FRONT STEERING Supply voltage high'</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="b">
+        <f>IFERROR(VLOOKUP(C11,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10496</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'FRONT STEERING Offline'</v>
+        <v>431</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="b">
+        <f>IFERROR(VLOOKUP(C12,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12291</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'REAR STEERING Overheat'</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="b">
+        <f>IFERROR(VLOOKUP(C13,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12292</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'REAR STEERING Stator high current'</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="b">
+        <f>IFERROR(VLOOKUP(C14,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12293</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'REAR STEERING Supply voltage low'</v>
+        <v>434</v>
       </c>
       <c r="D15" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="b">
+        <f>IFERROR(VLOOKUP(C15,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12294</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'REAR STEERING Supply voltage high'</v>
+        <v>435</v>
       </c>
       <c r="D16" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" t="b">
+        <f>IFERROR(VLOOKUP(C16,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12544</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'REAR STEERING Offline'</v>
+        <v>436</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" t="b">
+        <f>IFERROR(VLOOKUP(C17,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14592</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">тут какое-то описание по ошибке  'PARKING BRAKE   Pin hardware error', </v>
+        <v>437</v>
       </c>
       <c r="D18" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" t="b">
+        <f>IFERROR(VLOOKUP(C18,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18432</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FL Hardware'</v>
+        <v>438</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" t="b">
+        <f>IFERROR(VLOOKUP(C19,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18433</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FL Wiring'</v>
+        <v>439</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" t="b">
+        <f>IFERROR(VLOOKUP(C20,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18434</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FL Warning'</v>
+        <v>440</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" t="b">
+        <f>IFERROR(VLOOKUP(C21,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18435</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FL Failure'</v>
+        <v>441</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" t="b">
+        <f>IFERROR(VLOOKUP(C22,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18436</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FR Hardware'</v>
+        <v>442</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" t="b">
+        <f>IFERROR(VLOOKUP(C23,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18437</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FR Wiring'</v>
+        <v>443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" t="b">
+        <f>IFERROR(VLOOKUP(C24,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>18438</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FR Warning'</v>
+        <v>444</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25" t="b">
+        <f>IFERROR(VLOOKUP(C25,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>18439</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS FR Failure'</v>
+        <v>445</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F26" t="b">
+        <f>IFERROR(VLOOKUP(C26,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>18440</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RL Hardware'</v>
+        <v>446</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F27" t="b">
+        <f>IFERROR(VLOOKUP(C27,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>18441</v>
       </c>
       <c r="B28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RL Wiring'</v>
+        <v>447</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F28" t="b">
+        <f>IFERROR(VLOOKUP(C28,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>18442</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RL Warning'</v>
+        <v>448</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F29" t="b">
+        <f>IFERROR(VLOOKUP(C29,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>18443</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RL Failure'</v>
+        <v>449</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F30" t="b">
+        <f>IFERROR(VLOOKUP(C30,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>18444</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RR Hardware'</v>
+        <v>450</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F31" t="b">
+        <f>IFERROR(VLOOKUP(C31,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>18445</v>
       </c>
       <c r="B32" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RR Wiring'</v>
+        <v>451</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F32" t="b">
+        <f>IFERROR(VLOOKUP(C32,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>18446</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RR Warning'</v>
+        <v>452</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
       </c>
       <c r="D33" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F33" t="b">
+        <f>IFERROR(VLOOKUP(C33,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>18447</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'ABS RR Failure'</v>
+        <v>453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F34" t="b">
+        <f>IFERROR(VLOOKUP(C34,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>20481</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE INPUTS Antifreeze sensor'</v>
+        <v>454</v>
       </c>
       <c r="D35" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F35" t="b">
+        <f>IFERROR(VLOOKUP(C35,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>20736</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE INPUTS Red button'</v>
+        <v>455</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
       </c>
       <c r="D36" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F36" t="b">
+        <f>IFERROR(VLOOKUP(C36,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>20738</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE INPUTS Brake fluid sensor'</v>
+        <v>456</v>
       </c>
       <c r="D37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F37" t="b">
+        <f>IFERROR(VLOOKUP(C37,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>22529</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'IOLIB ERRORS ERROR_NON_FATAL'</v>
+        <v>457</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F38" t="b">
+        <f>IFERROR(VLOOKUP(C38,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>22531</v>
       </c>
       <c r="B39" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'IOLIB ERRORS WARNING_CFG_FLASH'</v>
+        <v>458</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
       </c>
       <c r="D39" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F39" t="b">
+        <f>IFERROR(VLOOKUP(C39,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22532</v>
       </c>
       <c r="B40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'IOLIB ERRORS WARNING_FLASH'</v>
+        <v>459</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F40" t="b">
+        <f>IFERROR(VLOOKUP(C40,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>22533</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'IOLIB ERRORS WARNING_RAM'</v>
+        <v>460</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
       </c>
       <c r="D41" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F41" t="b">
+        <f>IFERROR(VLOOKUP(C41,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>22784</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'IOLIB ERRORS ERROR_FATAL'</v>
+        <v>461</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F42" t="b">
+        <f>IFERROR(VLOOKUP(C42,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>22786</v>
       </c>
       <c r="B43" t="s">
-        <v>301</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'IOLIB ERRORS ERROR_FPU'</v>
+        <v>462</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
       </c>
       <c r="D43" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F43" t="b">
+        <f>IFERROR(VLOOKUP(C43,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>24579</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'CHARGING BMS_OFFLINE'</v>
+        <v>490</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F44" t="b">
+        <f>IFERROR(VLOOKUP(C44,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>24580</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'CHARGING BZU_HARDWARE_FAILURE'</v>
+        <v>491</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
       </c>
       <c r="D45" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F45" t="b">
+        <f>IFERROR(VLOOKUP(C45,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>24581</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'CHARGING BZU_OVERHEAT'</v>
+        <v>492</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
       </c>
       <c r="D46" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F46" t="b">
+        <f>IFERROR(VLOOKUP(C46,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>24582</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'CHARGING BZU_INPUT_VOLTAGE_ERROR'</v>
+        <v>493</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
       </c>
       <c r="D47" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F47" t="b">
+        <f>IFERROR(VLOOKUP(C47,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>24583</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'CHARGING BZU_COMMUNICATION_ERROR'</v>
+        <v>494</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
       </c>
       <c r="D48" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F48" t="b">
+        <f>IFERROR(VLOOKUP(C48,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>24832</v>
       </c>
       <c r="B49" t="s">
-        <v>307</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'CHARGING BZU_OFFLINE'</v>
+        <v>495</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
       </c>
       <c r="D49" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F49" t="b">
+        <f>IFERROR(VLOOKUP(C49,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>24833</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">тут какое-то описание по ошибке  'CHARGING   PSTED pin error', </v>
+        <v>496</v>
       </c>
       <c r="D50" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F50" t="b">
+        <f>IFERROR(VLOOKUP(C50,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>24834</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">тут какое-то описание по ошибке  'CHARGING   BZU offline', </v>
+        <v>497</v>
       </c>
       <c r="D51" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F51" t="b">
+        <f>IFERROR(VLOOKUP(C51,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>26629</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">тут какое-то описание по ошибке  'HYDRAULIC BRAKES   Graceful driver', </v>
+        <v>498</v>
       </c>
       <c r="D52" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F52" t="b">
+        <f>IFERROR(VLOOKUP(C52,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>26633</v>
       </c>
       <c r="B53" t="s">
-        <v>311</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'HYDRAULIC BRAKES NON_ZERO_STARTUP_VELOCITY '</v>
+        <v>499</v>
       </c>
       <c r="D53" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F53" t="b">
+        <f>IFERROR(VLOOKUP(C53,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>26880</v>
       </c>
       <c r="B54" t="s">
-        <v>312</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'HYDRAULIC BRAKES Accumulator'</v>
+        <v>463</v>
       </c>
       <c r="D54" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F54" t="b">
+        <f>IFERROR(VLOOKUP(C54,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>26881</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'HYDRAULIC BRAKES Contour L'</v>
+        <v>464</v>
       </c>
       <c r="D55" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F55" t="b">
+        <f>IFERROR(VLOOKUP(C55,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>26882</v>
       </c>
       <c r="B56" t="s">
-        <v>314</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'HYDRAULIC BRAKES Contour R'</v>
+        <v>465</v>
       </c>
       <c r="D56" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F56" t="b">
+        <f>IFERROR(VLOOKUP(C56,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>26883</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">тут какое-то описание по ошибке  'HYDRAULIC BRAKES   Contour L', </v>
+        <v>464</v>
       </c>
       <c r="D57" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F57" t="b">
+        <f>IFERROR(VLOOKUP(C57,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>26884</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">тут какое-то описание по ошибке  'HYDRAULIC BRAKES   Contour R', </v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F58" t="b">
+        <f>IFERROR(VLOOKUP(C58,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>26888</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'HYDRAULIC BRAKES GRACEFUL_DRIVER '</v>
+        <v>500</v>
       </c>
       <c r="D59" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F59" t="b">
+        <f>IFERROR(VLOOKUP(C59,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>26890</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'HYDRAULIC BRAKES CALIBRATOR_UNIT_CHECK_ERROR '</v>
+        <v>501</v>
       </c>
       <c r="D60" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F60" t="b">
+        <f>IFERROR(VLOOKUP(C60,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>28672</v>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'SUSPENSION Hardware fault'</v>
+        <v>466</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
       </c>
       <c r="D61" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F61" t="b">
+        <f>IFERROR(VLOOKUP(C61,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>28673</v>
       </c>
       <c r="B62" t="s">
-        <v>320</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'SUSPENSION Pressure limit warning'</v>
+        <v>467</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
       </c>
       <c r="D62" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F62" t="b">
+        <f>IFERROR(VLOOKUP(C62,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>28674</v>
       </c>
       <c r="B63" t="s">
-        <v>321</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'SUSPENSION Height timeout warning'</v>
+        <v>468</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
       </c>
       <c r="D63" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F63" t="b">
+        <f>IFERROR(VLOOKUP(C63,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>30720</v>
       </c>
       <c r="B64" t="s">
-        <v>322</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'VOLTAGE MONITORING V24 undervoltage'</v>
+        <v>469</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
       </c>
       <c r="D64" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F64" t="b">
+        <f>IFERROR(VLOOKUP(C64,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>30721</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>тут какое-то описание по ошибке 'VOLTAGE MONITORING V24 overvoltage'</v>
+        <v>470</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
       </c>
       <c r="D65" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F65" t="b">
+        <f>IFERROR(VLOOKUP(C65,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>30722</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" ref="C66:C107" si="1">"тут какое-то описание по ошибке "&amp;B66</f>
-        <v>тут какое-то описание по ошибке 'VOLTAGE MONITORING V12 undervoltage'</v>
+        <v>471</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
       </c>
       <c r="D66" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F66" t="b">
+        <f>IFERROR(VLOOKUP(C66,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>30723</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'VOLTAGE MONITORING V12 overvoltage'</v>
+        <v>472</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
       </c>
       <c r="D67" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F67" t="b">
+        <f>IFERROR(VLOOKUP(C67,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>30724</v>
       </c>
       <c r="B68" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'VOLTAGE MONITORING IOLIB_24V'</v>
+        <v>473</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
       </c>
       <c r="D68" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F68" t="b">
+        <f>IFERROR(VLOOKUP(C68,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>30725</v>
       </c>
       <c r="B69" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'VOLTAGE MONITORING IOLIB_12V'</v>
+        <v>474</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
       </c>
       <c r="D69" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F69" t="b">
+        <f>IFERROR(VLOOKUP(C69,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>32784</v>
       </c>
       <c r="B70" t="s">
-        <v>328</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Contactor warning'</v>
+        <v>475</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
       </c>
       <c r="D70" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F70" t="b">
+        <f>IFERROR(VLOOKUP(C70,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>32785</v>
       </c>
       <c r="B71" t="s">
-        <v>329</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Overheat warning'</v>
+        <v>476</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
       </c>
       <c r="D71" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F71" t="b">
+        <f>IFERROR(VLOOKUP(C71,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>32786</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Sensor warning'</v>
+        <v>477</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
       </c>
       <c r="D72" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F72" t="b">
+        <f>IFERROR(VLOOKUP(C72,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>32787</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке PSTED High voltage warning'</v>
+        <v>478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
       </c>
       <c r="D73" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F73" t="b">
+        <f>IFERROR(VLOOKUP(C73,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>32788</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке PSTED Other warning'</v>
+        <v>479</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
       </c>
       <c r="D74" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F74" t="b">
+        <f>IFERROR(VLOOKUP(C74,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>33024</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Offline'</v>
+        <v>480</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
       </c>
       <c r="D75" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F75" t="b">
+        <f>IFERROR(VLOOKUP(C75,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>33025</v>
       </c>
       <c r="B76" t="s">
-        <v>334</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Hardware fault'</v>
+        <v>502</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
       </c>
       <c r="D76" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F76" t="b">
+        <f>IFERROR(VLOOKUP(C76,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>33026</v>
       </c>
       <c r="B77" t="s">
-        <v>335</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Emergency stop'</v>
+        <v>481</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
       </c>
       <c r="D77" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F77" t="b">
+        <f>IFERROR(VLOOKUP(C77,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>33027</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Overheat'</v>
+        <v>482</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
       </c>
       <c r="D78" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F78" t="b">
+        <f>IFERROR(VLOOKUP(C78,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>33028</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Phys limits'</v>
+        <v>483</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
       </c>
       <c r="D79" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F79" t="b">
+        <f>IFERROR(VLOOKUP(C79,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>33029</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Contactor fault'</v>
+        <v>484</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
       </c>
       <c r="D80" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F80" t="b">
+        <f>IFERROR(VLOOKUP(C80,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>33030</v>
       </c>
       <c r="B81" t="s">
-        <v>339</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Software and config'</v>
+        <v>485</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
       </c>
       <c r="D81" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F81" t="b">
+        <f>IFERROR(VLOOKUP(C81,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>33031</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Precharge fault'</v>
+        <v>486</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
       </c>
       <c r="D82" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F82" t="b">
+        <f>IFERROR(VLOOKUP(C82,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>33034</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'PSTED Other errors'</v>
+        <v>487</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
       </c>
       <c r="D83" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F83" t="b">
+        <f>IFERROR(VLOOKUP(C83,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>35072</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'POWER MANAGEMENT Mass relay pin'</v>
+        <v>488</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
       </c>
       <c r="D84" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F84" t="b">
+        <f>IFERROR(VLOOKUP(C84,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>35073</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'POWER MANAGEMENT BKU turnoff pin'</v>
+        <v>489</v>
       </c>
       <c r="D85" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F85" t="b">
+        <f>IFERROR(VLOOKUP(C85,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>36864</v>
       </c>
       <c r="B86" t="s">
-        <v>344</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'COOLING_FAN HARDWARE_ERROR'</v>
+        <v>503</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
       </c>
       <c r="D86" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F86" t="b">
+        <f>IFERROR(VLOOKUP(C86,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>36865</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'COOLING_FAN WRONG_SETTINGS'</v>
+        <v>504</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
       </c>
       <c r="D87" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F87" t="b">
+        <f>IFERROR(VLOOKUP(C87,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>37120</v>
       </c>
       <c r="B88" t="s">
-        <v>346</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке MAINFSM BKU_LOST_IN_ARMED'</v>
+        <v>505</v>
       </c>
       <c r="D88" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F88" t="b">
+        <f>IFERROR(VLOOKUP(C88,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>43008</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'COOLING_FAN HARDWARE_ERROR'</v>
+        <v>503</v>
+      </c>
+      <c r="C89" t="s">
+        <v>205</v>
       </c>
       <c r="D89" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F89" t="b">
+        <f>IFERROR(VLOOKUP(C89,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>43009</v>
       </c>
       <c r="B90" t="s">
-        <v>345</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'COOLING_FAN WRONG_SETTINGS'</v>
+        <v>504</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
       </c>
       <c r="D90" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F90" t="b">
+        <f>IFERROR(VLOOKUP(C90,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>45312</v>
       </c>
       <c r="B91" t="s">
-        <v>347</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке DISCRETE_BRAKES HARDWARE_ERROR'</v>
+        <v>506</v>
       </c>
       <c r="D91" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F91" t="b">
+        <f>IFERROR(VLOOKUP(C91,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>47360</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'T15_CONTROL HARDWARE'</v>
+        <v>507</v>
+      </c>
+      <c r="C92" t="s">
+        <v>211</v>
       </c>
       <c r="D92" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F92" t="b">
+        <f>IFERROR(VLOOKUP(C92,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>49155</v>
       </c>
       <c r="B93" t="s">
-        <v>349</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке DISCRETE_OUTPUT SUSP_VALVE_UP_1_PIN_ERROR'</v>
+        <v>508</v>
+      </c>
+      <c r="C93" t="s">
+        <v>223</v>
       </c>
       <c r="D93" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F93" t="b">
+        <f>IFERROR(VLOOKUP(C93,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>49156</v>
       </c>
       <c r="B94" t="s">
-        <v>350</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT SUSP_VALVE_UP_2_PIN_ERROR'</v>
+        <v>509</v>
+      </c>
+      <c r="C94" t="s">
+        <v>226</v>
       </c>
       <c r="D94" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F94" t="b">
+        <f>IFERROR(VLOOKUP(C94,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>49157</v>
       </c>
       <c r="B95" t="s">
-        <v>351</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT SUSP_VALVE_UP_3_PIN_ERROR'</v>
+        <v>510</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
       </c>
       <c r="D95" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F95" t="b">
+        <f>IFERROR(VLOOKUP(C95,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>49158</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT SUSP_VALVE_UP_4_PIN_ERROR'</v>
+        <v>511</v>
+      </c>
+      <c r="C96" t="s">
+        <v>232</v>
       </c>
       <c r="D96" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F96" t="b">
+        <f>IFERROR(VLOOKUP(C96,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>49159</v>
       </c>
       <c r="B97" t="s">
-        <v>353</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT SUSP_VALVE_DOWN_1_PIN_ERROR'</v>
+        <v>512</v>
+      </c>
+      <c r="C97" t="s">
+        <v>235</v>
       </c>
       <c r="D97" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F97" t="b">
+        <f>IFERROR(VLOOKUP(C97,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>49160</v>
       </c>
       <c r="B98" t="s">
-        <v>354</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT SUSP_VALVE_DOWN_2_PIN_ERROR'</v>
+        <v>513</v>
+      </c>
+      <c r="C98" t="s">
+        <v>238</v>
       </c>
       <c r="D98" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F98" t="b">
+        <f>IFERROR(VLOOKUP(C98,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>49161</v>
       </c>
       <c r="B99" t="s">
-        <v>355</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT SUSP_VALVE_DOWN_3_PIN_ERROR'</v>
+        <v>514</v>
+      </c>
+      <c r="C99" t="s">
+        <v>241</v>
       </c>
       <c r="D99" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F99" t="b">
+        <f>IFERROR(VLOOKUP(C99,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>49162</v>
       </c>
       <c r="B100" t="s">
-        <v>356</v>
-      </c>
-      <c r="C100" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT SUSP_VALVE_DOWN_4_PIN_ERROR'</v>
+        <v>515</v>
+      </c>
+      <c r="C100" t="s">
+        <v>244</v>
       </c>
       <c r="D100" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F100" t="b">
+        <f>IFERROR(VLOOKUP(C100,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>49166</v>
       </c>
       <c r="B101" t="s">
-        <v>357</v>
-      </c>
-      <c r="C101" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT CHARGE_STATE_LED_PIN_ERROR'</v>
+        <v>516</v>
+      </c>
+      <c r="C101" t="s">
+        <v>250</v>
       </c>
       <c r="D101" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F101" t="b">
+        <f>IFERROR(VLOOKUP(C101,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>49408</v>
       </c>
       <c r="B102" t="s">
-        <v>358</v>
-      </c>
-      <c r="C102" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT PARKING_BRAKE_PIN_ERROR'</v>
+        <v>517</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
       </c>
       <c r="D102" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F102" t="b">
+        <f>IFERROR(VLOOKUP(C102,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>49409</v>
       </c>
       <c r="B103" t="s">
-        <v>359</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT CHARGE_CP_PIN_ERROR'</v>
+        <v>518</v>
+      </c>
+      <c r="C103" t="s">
+        <v>247</v>
       </c>
       <c r="D103" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F103" t="b">
+        <f>IFERROR(VLOOKUP(C103,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>49410</v>
       </c>
       <c r="B104" t="s">
-        <v>360</v>
-      </c>
-      <c r="C104" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT START_PSTED_PIN_ERROR'</v>
+        <v>519</v>
+      </c>
+      <c r="C104" t="s">
+        <v>220</v>
       </c>
       <c r="D104" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F104" t="b">
+        <f>IFERROR(VLOOKUP(C104,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>49419</v>
       </c>
       <c r="B105" t="s">
-        <v>361</v>
-      </c>
-      <c r="C105" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT DISCRETE_BRAKE_PUMP_PIN_ERROR'</v>
+        <v>520</v>
+      </c>
+      <c r="C105" t="s">
+        <v>253</v>
       </c>
       <c r="D105" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F105" t="b">
+        <f>IFERROR(VLOOKUP(C105,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>49420</v>
       </c>
       <c r="B106" t="s">
-        <v>362</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT DISCRETE_BRAKE_VALVE_1_8_PIN_ERROR'</v>
+        <v>521</v>
+      </c>
+      <c r="C106" t="s">
+        <v>256</v>
       </c>
       <c r="D106" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F106" t="b">
+        <f>IFERROR(VLOOKUP(C106,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>49421</v>
       </c>
       <c r="B107" t="s">
-        <v>363</v>
-      </c>
-      <c r="C107" t="str">
-        <f t="shared" si="1"/>
-        <v>тут какое-то описание по ошибке 'DISCRETE_OUTPUT DISCRETE_BRAKE_VALVE_2_9_PIN_ERROR'</v>
+        <v>522</v>
+      </c>
+      <c r="C107" t="s">
+        <v>217</v>
       </c>
       <c r="D107" t="s">
         <v>260</v>
+      </c>
+      <c r="F107" t="b">
+        <f>IFERROR(VLOOKUP(C107,Sheet1!$D$2:$F$93,3,0), FALSE)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A137A3-FAB9-48D2-9E83-07599821EEE6}">
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4096</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10245</v>
+      </c>
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10496</v>
+      </c>
+      <c r="B12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12292</v>
+      </c>
+      <c r="B14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12294</v>
+      </c>
+      <c r="B16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12544</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14592</v>
+      </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18432</v>
+      </c>
+      <c r="B19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18433</v>
+      </c>
+      <c r="B20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18434</v>
+      </c>
+      <c r="B21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18435</v>
+      </c>
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18436</v>
+      </c>
+      <c r="B23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18437</v>
+      </c>
+      <c r="B24" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18438</v>
+      </c>
+      <c r="B25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>18439</v>
+      </c>
+      <c r="B26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>18440</v>
+      </c>
+      <c r="B27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>18441</v>
+      </c>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>18442</v>
+      </c>
+      <c r="B29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>18443</v>
+      </c>
+      <c r="B30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>18444</v>
+      </c>
+      <c r="B31" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>18445</v>
+      </c>
+      <c r="B32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>18446</v>
+      </c>
+      <c r="B33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>18447</v>
+      </c>
+      <c r="B34" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20481</v>
+      </c>
+      <c r="B35" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20736</v>
+      </c>
+      <c r="B36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20738</v>
+      </c>
+      <c r="B37" t="s">
+        <v>374</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>22529</v>
+      </c>
+      <c r="B38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>22531</v>
+      </c>
+      <c r="B39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>22532</v>
+      </c>
+      <c r="B40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>22533</v>
+      </c>
+      <c r="B41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>22784</v>
+      </c>
+      <c r="B42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>22786</v>
+      </c>
+      <c r="B43" t="s">
+        <v>380</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>24579</v>
+      </c>
+      <c r="B44" t="s">
+        <v>381</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>24580</v>
+      </c>
+      <c r="B45" t="s">
+        <v>382</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>24581</v>
+      </c>
+      <c r="B46" t="s">
+        <v>383</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>24582</v>
+      </c>
+      <c r="B47" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>24583</v>
+      </c>
+      <c r="B48" t="s">
+        <v>385</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>24832</v>
+      </c>
+      <c r="B49" t="s">
+        <v>386</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>24833</v>
+      </c>
+      <c r="B50" t="s">
+        <v>387</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>24834</v>
+      </c>
+      <c r="B51" t="s">
+        <v>388</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>26629</v>
+      </c>
+      <c r="B52" t="s">
+        <v>389</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>26633</v>
+      </c>
+      <c r="B53" t="s">
+        <v>390</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>26880</v>
+      </c>
+      <c r="B54" t="s">
+        <v>391</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>26881</v>
+      </c>
+      <c r="B55" t="s">
+        <v>392</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>26882</v>
+      </c>
+      <c r="B56" t="s">
+        <v>393</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>26883</v>
+      </c>
+      <c r="B57" t="s">
+        <v>394</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>26884</v>
+      </c>
+      <c r="B58" t="s">
+        <v>395</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>28672</v>
+      </c>
+      <c r="B59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>28673</v>
+      </c>
+      <c r="B60" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>28674</v>
+      </c>
+      <c r="B61" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>30720</v>
+      </c>
+      <c r="B62" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>30721</v>
+      </c>
+      <c r="B63" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>30722</v>
+      </c>
+      <c r="B64" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>30723</v>
+      </c>
+      <c r="B65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>30724</v>
+      </c>
+      <c r="B66" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>30725</v>
+      </c>
+      <c r="B67" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>32784</v>
+      </c>
+      <c r="B68" t="s">
+        <v>405</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>32785</v>
+      </c>
+      <c r="B69" t="s">
+        <v>406</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>32786</v>
+      </c>
+      <c r="B70" t="s">
+        <v>407</v>
+      </c>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>32787</v>
+      </c>
+      <c r="B71" t="s">
+        <v>408</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>32788</v>
+      </c>
+      <c r="B72" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>33024</v>
+      </c>
+      <c r="B73" t="s">
+        <v>410</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>33025</v>
+      </c>
+      <c r="B74" t="s">
+        <v>411</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>33026</v>
+      </c>
+      <c r="B75" t="s">
+        <v>412</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>33027</v>
+      </c>
+      <c r="B76" t="s">
+        <v>413</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>33028</v>
+      </c>
+      <c r="B77" t="s">
+        <v>414</v>
+      </c>
+      <c r="C77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>33029</v>
+      </c>
+      <c r="B78" t="s">
+        <v>415</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>33030</v>
+      </c>
+      <c r="B79" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>33031</v>
+      </c>
+      <c r="B80" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>33034</v>
+      </c>
+      <c r="B81" t="s">
+        <v>418</v>
+      </c>
+      <c r="C81" t="s">
+        <v>173</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>35072</v>
+      </c>
+      <c r="B82" t="s">
+        <v>419</v>
+      </c>
+      <c r="C82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>35073</v>
+      </c>
+      <c r="B83" t="s">
+        <v>420</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0180E-79C8-4F22-A482-C9C14FE49414}">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+      <c r="C53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>332</v>
+      </c>
+      <c r="C57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C110">
+    <sortCondition ref="C1:C110"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>